--- a/day_02/dump_analysis.xlsx
+++ b/day_02/dump_analysis.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\advent_of_code\day_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9834889B-5377-449A-8887-2628FBE6FCA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFC966-6970-4B07-9EAA-BB6C3EE705D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAD1769F-CF98-4513-B153-3168274BD8C0}"/>
+    <workbookView xWindow="5115" yWindow="3870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{FAD1769F-CF98-4513-B153-3168274BD8C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
+    <sheet name="Dump" sheetId="3" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle3!$A$1:$FI$41</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Dump!$A$1:$FI$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="316">
   <si>
     <t>Column1</t>
   </si>
@@ -538,13 +538,473 @@
   </si>
   <si>
     <t>Column165</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x * 4</t>
+  </si>
+  <si>
+    <t>4x+1</t>
+  </si>
+  <si>
+    <t>12x+3</t>
+  </si>
+  <si>
+    <t>12x+4</t>
+  </si>
+  <si>
+    <t>12x+7</t>
+  </si>
+  <si>
+    <t>12x+11</t>
+  </si>
+  <si>
+    <t>60x+55</t>
+  </si>
+  <si>
+    <t>60x+58</t>
+  </si>
+  <si>
+    <t>60x+61</t>
+  </si>
+  <si>
+    <t>60x+63</t>
+  </si>
+  <si>
+    <t>60x+68</t>
+  </si>
+  <si>
+    <t>60x+73</t>
+  </si>
+  <si>
+    <t>60x+78</t>
+  </si>
+  <si>
+    <t>60x+80</t>
+  </si>
+  <si>
+    <t>60x+85</t>
+  </si>
+  <si>
+    <t>240x+340</t>
+  </si>
+  <si>
+    <t>240x+345</t>
+  </si>
+  <si>
+    <t>240x+349</t>
+  </si>
+  <si>
+    <t>720x+1047</t>
+  </si>
+  <si>
+    <t>720x+1049</t>
+  </si>
+  <si>
+    <t>720x+1052</t>
+  </si>
+  <si>
+    <t>2880x+4208</t>
+  </si>
+  <si>
+    <t>2880x+4209</t>
+  </si>
+  <si>
+    <t>5760x+8418</t>
+  </si>
+  <si>
+    <t>5760x+8420</t>
+  </si>
+  <si>
+    <t>5760x+8423</t>
+  </si>
+  <si>
+    <t>5760x+8426</t>
+  </si>
+  <si>
+    <t>23040x+33704</t>
+  </si>
+  <si>
+    <t>23040x+33705</t>
+  </si>
+  <si>
+    <t>46080x+67410</t>
+  </si>
+  <si>
+    <t>46080x+67411</t>
+  </si>
+  <si>
+    <t>46080x+67414</t>
+  </si>
+  <si>
+    <t>230400x+337070</t>
+  </si>
+  <si>
+    <t>230400x+337073</t>
+  </si>
+  <si>
+    <t>230400x+337073+y</t>
+  </si>
+  <si>
+    <t>230400x+337076+y</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>//--&gt; Correct same as Part 1</t>
+  </si>
+  <si>
+    <t>Part2</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>19'690'720</t>
+  </si>
+  <si>
+    <t>See Table</t>
+  </si>
+  <si>
+    <t>Proof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,12 +1013,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -570,16 +1036,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40 % - Akzent3" xfId="1" builtinId="39"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="3">
     <dxf>
       <border>
         <left/>
@@ -598,109 +1067,7 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,6 +1596,220 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC78075A-74BA-4A03-AB20-F5AB81E9E8E1}" name="Tabelle4" displayName="Tabelle4" ref="K3:DG103">
+  <autoFilter ref="K3:DG103" xr:uid="{6EB588A6-B4DE-4C60-9CCE-F213AD906C3A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
+    <filterColumn colId="25" hiddenButton="1"/>
+    <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
+    <filterColumn colId="28" hiddenButton="1"/>
+    <filterColumn colId="29" hiddenButton="1"/>
+    <filterColumn colId="30" hiddenButton="1"/>
+    <filterColumn colId="31" hiddenButton="1"/>
+    <filterColumn colId="32" hiddenButton="1"/>
+    <filterColumn colId="33" hiddenButton="1"/>
+    <filterColumn colId="34" hiddenButton="1"/>
+    <filterColumn colId="35" hiddenButton="1"/>
+    <filterColumn colId="36" hiddenButton="1"/>
+    <filterColumn colId="37" hiddenButton="1"/>
+    <filterColumn colId="38" hiddenButton="1"/>
+    <filterColumn colId="39" hiddenButton="1"/>
+    <filterColumn colId="40" hiddenButton="1"/>
+    <filterColumn colId="41" hiddenButton="1"/>
+    <filterColumn colId="42" hiddenButton="1"/>
+    <filterColumn colId="43" hiddenButton="1"/>
+    <filterColumn colId="44" hiddenButton="1"/>
+    <filterColumn colId="45" hiddenButton="1"/>
+    <filterColumn colId="46" hiddenButton="1"/>
+    <filterColumn colId="47" hiddenButton="1"/>
+    <filterColumn colId="48" hiddenButton="1"/>
+    <filterColumn colId="49" hiddenButton="1"/>
+    <filterColumn colId="50" hiddenButton="1"/>
+    <filterColumn colId="51" hiddenButton="1"/>
+    <filterColumn colId="52" hiddenButton="1"/>
+    <filterColumn colId="53" hiddenButton="1"/>
+    <filterColumn colId="54" hiddenButton="1"/>
+    <filterColumn colId="55" hiddenButton="1"/>
+    <filterColumn colId="56" hiddenButton="1"/>
+    <filterColumn colId="57" hiddenButton="1"/>
+    <filterColumn colId="58" hiddenButton="1"/>
+    <filterColumn colId="59" hiddenButton="1"/>
+    <filterColumn colId="60" hiddenButton="1"/>
+    <filterColumn colId="61" hiddenButton="1"/>
+    <filterColumn colId="62" hiddenButton="1"/>
+    <filterColumn colId="63" hiddenButton="1"/>
+    <filterColumn colId="64" hiddenButton="1"/>
+    <filterColumn colId="65" hiddenButton="1"/>
+    <filterColumn colId="66" hiddenButton="1"/>
+    <filterColumn colId="67" hiddenButton="1"/>
+    <filterColumn colId="68" hiddenButton="1"/>
+    <filterColumn colId="69" hiddenButton="1"/>
+    <filterColumn colId="70" hiddenButton="1"/>
+    <filterColumn colId="71" hiddenButton="1"/>
+    <filterColumn colId="72" hiddenButton="1"/>
+    <filterColumn colId="73" hiddenButton="1"/>
+    <filterColumn colId="74" hiddenButton="1"/>
+    <filterColumn colId="75" hiddenButton="1"/>
+    <filterColumn colId="76" hiddenButton="1"/>
+    <filterColumn colId="77" hiddenButton="1"/>
+    <filterColumn colId="78" hiddenButton="1"/>
+    <filterColumn colId="79" hiddenButton="1"/>
+    <filterColumn colId="80" hiddenButton="1"/>
+    <filterColumn colId="81" hiddenButton="1"/>
+    <filterColumn colId="82" hiddenButton="1"/>
+    <filterColumn colId="83" hiddenButton="1"/>
+    <filterColumn colId="84" hiddenButton="1"/>
+    <filterColumn colId="85" hiddenButton="1"/>
+    <filterColumn colId="86" hiddenButton="1"/>
+    <filterColumn colId="87" hiddenButton="1"/>
+    <filterColumn colId="88" hiddenButton="1"/>
+    <filterColumn colId="89" hiddenButton="1"/>
+    <filterColumn colId="90" hiddenButton="1"/>
+    <filterColumn colId="91" hiddenButton="1"/>
+    <filterColumn colId="92" hiddenButton="1"/>
+    <filterColumn colId="93" hiddenButton="1"/>
+    <filterColumn colId="94" hiddenButton="1"/>
+    <filterColumn colId="95" hiddenButton="1"/>
+    <filterColumn colId="96" hiddenButton="1"/>
+    <filterColumn colId="97" hiddenButton="1"/>
+    <filterColumn colId="98" hiddenButton="1"/>
+    <filterColumn colId="99" hiddenButton="1"/>
+    <filterColumn colId="100" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="101">
+    <tableColumn id="1" xr3:uid="{8456EBAC-D2C6-4F55-975F-878E45D34876}" name="Spalte1" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="2" xr3:uid="{6A0CE1C9-EC9A-466C-9789-1898163BE9D6}" name="0" dataDxfId="2">
+      <calculatedColumnFormula>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C863D27A-8DB1-4D13-99F9-855FA1FE8A42}" name="1"/>
+    <tableColumn id="4" xr3:uid="{1815BF40-987C-4CAB-AAAB-DDE849A56F2E}" name="2"/>
+    <tableColumn id="5" xr3:uid="{BC63D93C-17AC-43D7-A417-9E38FAFCEA42}" name="3"/>
+    <tableColumn id="6" xr3:uid="{4E2494E8-AA3D-4596-A1DE-AAE60EC6D0A3}" name="4"/>
+    <tableColumn id="7" xr3:uid="{93B85DF8-7B7F-4AAE-BFCC-C56AA52DFDBB}" name="5"/>
+    <tableColumn id="8" xr3:uid="{5A97F0D4-B679-4A27-959D-52D23C6A1AEB}" name="6"/>
+    <tableColumn id="9" xr3:uid="{DD00D59A-E7A7-4A9F-B99C-3D4AE188AE96}" name="7"/>
+    <tableColumn id="10" xr3:uid="{BC21D4AE-CE6B-4F45-A1C7-98DCBF2A4ECD}" name="8"/>
+    <tableColumn id="11" xr3:uid="{47E46313-5A37-47C5-9BDA-D9F9A1A672AE}" name="9"/>
+    <tableColumn id="12" xr3:uid="{1B2D24C1-0F03-4CF4-8B09-4685D7CBCFE4}" name="10"/>
+    <tableColumn id="13" xr3:uid="{3ACB4C0E-315E-448B-AA68-633EA709E53A}" name="11"/>
+    <tableColumn id="14" xr3:uid="{1FBF4ABE-D145-4ECD-A2E1-70639CEA57C3}" name="12"/>
+    <tableColumn id="15" xr3:uid="{5B85BC2C-E973-48D4-AA59-DA00A9732EB0}" name="13"/>
+    <tableColumn id="16" xr3:uid="{46C5E7CF-1DE2-4D61-87A1-EC6700BF14AD}" name="14"/>
+    <tableColumn id="17" xr3:uid="{58BF46CB-86B1-4B37-A3BF-68A9D395F228}" name="15"/>
+    <tableColumn id="18" xr3:uid="{00FAA5B1-F637-473E-8E7C-38CFF47CC0BF}" name="16"/>
+    <tableColumn id="19" xr3:uid="{8D926315-FDFE-4944-ADD7-CA190BFB79EA}" name="17"/>
+    <tableColumn id="20" xr3:uid="{59E6401F-28C4-4CAF-A543-C1B4B223E602}" name="18"/>
+    <tableColumn id="21" xr3:uid="{64651970-5389-4D52-ABB5-5E53A6CA6308}" name="19"/>
+    <tableColumn id="22" xr3:uid="{29B28956-48CC-40BA-8839-B3AFC133EDF7}" name="20"/>
+    <tableColumn id="23" xr3:uid="{E9867B5D-3A7E-4C32-8F84-51D9A613D99C}" name="21"/>
+    <tableColumn id="24" xr3:uid="{E24C95AF-4F09-4C54-9547-3ADC4BB5F953}" name="22"/>
+    <tableColumn id="25" xr3:uid="{CC039E8E-419C-41CC-A94D-B3FBF18CBFFD}" name="23"/>
+    <tableColumn id="26" xr3:uid="{2D4A2E1E-0C71-4569-9CB9-68C5C5AFC01B}" name="24"/>
+    <tableColumn id="27" xr3:uid="{A78DB541-5F34-4234-A53A-BA78845E8242}" name="25"/>
+    <tableColumn id="28" xr3:uid="{9CBD8BCF-210C-4ABF-804F-92D2D0DA81DE}" name="26"/>
+    <tableColumn id="29" xr3:uid="{60E35568-66EC-4F4C-855E-9B89849B9C18}" name="27"/>
+    <tableColumn id="30" xr3:uid="{F4EFE5EB-C070-4025-8D78-291F64D478FC}" name="28"/>
+    <tableColumn id="31" xr3:uid="{675D48C4-052C-4A87-918E-E2252E99F9B5}" name="29"/>
+    <tableColumn id="32" xr3:uid="{64E8C66B-8AFD-48CF-86A2-6C534B41C1E8}" name="30"/>
+    <tableColumn id="33" xr3:uid="{988FA3DA-6429-4CA0-875F-428C56F78B1B}" name="31"/>
+    <tableColumn id="34" xr3:uid="{14E2F4CC-0BC3-41FB-A321-0BA6E11B5555}" name="32"/>
+    <tableColumn id="35" xr3:uid="{833C26CF-F5C3-4144-9E16-3CF274E546BD}" name="33"/>
+    <tableColumn id="36" xr3:uid="{716189AE-0196-4557-9743-093216A537E5}" name="34"/>
+    <tableColumn id="37" xr3:uid="{6DF36C17-BAC5-4B3B-AE2A-54A65863B29F}" name="35"/>
+    <tableColumn id="38" xr3:uid="{F9AC0A65-C646-4336-9447-AD2BA7F3CE28}" name="36"/>
+    <tableColumn id="39" xr3:uid="{A2F8541E-FFBD-4045-A2D5-08AFDC0E9F9B}" name="37"/>
+    <tableColumn id="40" xr3:uid="{F7D1C9C6-A106-4A10-936A-C572EA5EDD77}" name="38"/>
+    <tableColumn id="41" xr3:uid="{008EB094-FC0B-42CB-B2C8-25ED203031EB}" name="39"/>
+    <tableColumn id="42" xr3:uid="{F6FA602C-140D-4E0E-87EF-336E5C2AA34B}" name="40"/>
+    <tableColumn id="43" xr3:uid="{D6F4D7C4-2795-4E77-A518-4E37520DBCD6}" name="41"/>
+    <tableColumn id="44" xr3:uid="{3155EB3F-EE7E-4C7E-8AB6-F45F3EB80BCA}" name="42"/>
+    <tableColumn id="45" xr3:uid="{7677AED0-A5BB-41A5-9E69-1D0E6F59F523}" name="43"/>
+    <tableColumn id="46" xr3:uid="{A6195BC4-591A-43F8-98B7-AE0A68A1ED50}" name="44"/>
+    <tableColumn id="47" xr3:uid="{9ED1C6FE-83A2-44C8-85BE-002A5C945B93}" name="45"/>
+    <tableColumn id="48" xr3:uid="{F2153063-F02F-4506-BED5-60D9AC85DCCB}" name="46"/>
+    <tableColumn id="49" xr3:uid="{6FD36B10-B1CC-4F0B-8401-16452B32AD68}" name="47"/>
+    <tableColumn id="50" xr3:uid="{1AEC856C-9831-4B82-BFBB-663CD216A25C}" name="48"/>
+    <tableColumn id="51" xr3:uid="{D9966BC8-FD44-49EE-B29B-78777DCF54EF}" name="49"/>
+    <tableColumn id="52" xr3:uid="{47F2716E-0971-4F3A-8F31-3C15B2AF479A}" name="50"/>
+    <tableColumn id="53" xr3:uid="{6B70CE4F-58DD-4BED-897B-9B280456138B}" name="51"/>
+    <tableColumn id="54" xr3:uid="{EC46D4BD-55C3-4C40-BFE2-A79B3E73567D}" name="52"/>
+    <tableColumn id="55" xr3:uid="{DEA1ACB9-C12A-4C49-9BD7-EA829D9C71C6}" name="53"/>
+    <tableColumn id="56" xr3:uid="{4420F7BD-8609-4FC9-9EFD-92884F8A7BEB}" name="54"/>
+    <tableColumn id="57" xr3:uid="{9FD5DD6B-F5FF-44D7-A0C3-7E913FC0572A}" name="55"/>
+    <tableColumn id="58" xr3:uid="{9E1CFD6F-9113-4E12-B091-8F4867135EBB}" name="56"/>
+    <tableColumn id="59" xr3:uid="{99C7D05E-3E90-441A-B98D-BCDB34BDFF91}" name="57"/>
+    <tableColumn id="60" xr3:uid="{3098F924-22FA-451B-9ED0-0320B569250F}" name="58"/>
+    <tableColumn id="61" xr3:uid="{3876B52A-D837-4184-A3ED-9AA7B64780AC}" name="59"/>
+    <tableColumn id="62" xr3:uid="{D5A9CB88-3417-47C9-97E3-C41D26A6AD94}" name="60"/>
+    <tableColumn id="63" xr3:uid="{F692CE12-5504-4EA2-BAB6-7E581DA07AA3}" name="61"/>
+    <tableColumn id="64" xr3:uid="{B057443A-513A-43BB-9BB1-24605E1688D3}" name="62"/>
+    <tableColumn id="65" xr3:uid="{B4EC9903-043F-4A76-A9E4-35255F6B47CF}" name="63"/>
+    <tableColumn id="66" xr3:uid="{66816C20-750F-41CE-9204-E982F4279564}" name="64"/>
+    <tableColumn id="67" xr3:uid="{8200CADA-F871-4498-BC16-A0543B39C2C5}" name="65"/>
+    <tableColumn id="68" xr3:uid="{E2F1FB8D-90D6-43DC-9223-05B4DB6AB206}" name="66"/>
+    <tableColumn id="69" xr3:uid="{8F4DDCD6-85A0-49EF-85D9-FA3F5C896249}" name="67"/>
+    <tableColumn id="70" xr3:uid="{1EF6585D-6607-4E89-9020-0D5FCCDD3F01}" name="68"/>
+    <tableColumn id="71" xr3:uid="{2AA26B6E-6AB3-4912-BAC3-9CCD2097CEF6}" name="69"/>
+    <tableColumn id="72" xr3:uid="{5469FF25-61C7-4D16-BB5F-16951247363C}" name="70"/>
+    <tableColumn id="73" xr3:uid="{4193726A-7EC7-47A6-8C72-5653B5950604}" name="71"/>
+    <tableColumn id="74" xr3:uid="{6C264C13-3BB9-4552-B857-E3EB793BA8BF}" name="72"/>
+    <tableColumn id="75" xr3:uid="{DAA41FAD-9466-4BFF-BFA1-3724B852565F}" name="73"/>
+    <tableColumn id="76" xr3:uid="{2A7EBEC9-40CA-49E4-98CE-82290B2C86FD}" name="74"/>
+    <tableColumn id="77" xr3:uid="{1BC1FDBB-9581-4930-AAB7-C5EAA3B63132}" name="75"/>
+    <tableColumn id="78" xr3:uid="{85E8D212-A90C-4E6C-8760-15787B24B602}" name="76"/>
+    <tableColumn id="79" xr3:uid="{3DCE2E0B-086E-47DC-953C-28987FFD0DF1}" name="77"/>
+    <tableColumn id="80" xr3:uid="{AD134E37-7165-4EC7-962F-B0FA4F178448}" name="78"/>
+    <tableColumn id="81" xr3:uid="{61AC87BC-8F8F-49C7-85CD-66EA111668DF}" name="79"/>
+    <tableColumn id="82" xr3:uid="{5008B7EE-2D51-4F65-8C26-42F39BD6FDBC}" name="80"/>
+    <tableColumn id="83" xr3:uid="{75EDC110-C0FB-4CD2-BACC-07C5DF3F353C}" name="81"/>
+    <tableColumn id="84" xr3:uid="{FCFC4521-9861-43D8-A696-B25984CDEAB1}" name="82"/>
+    <tableColumn id="85" xr3:uid="{9FC2F67C-26A6-4381-BA71-085D58DEFA69}" name="83"/>
+    <tableColumn id="86" xr3:uid="{34DB582C-C5D5-470A-A2B1-ECDCABED8A2F}" name="84"/>
+    <tableColumn id="87" xr3:uid="{0553D8DC-6262-4509-BC25-1E1B3C48182A}" name="85"/>
+    <tableColumn id="88" xr3:uid="{60C858B2-4863-4A24-BCDC-7A88EAEB7A30}" name="86"/>
+    <tableColumn id="89" xr3:uid="{D483624E-E45F-4F0E-82D4-159312B0AB85}" name="87"/>
+    <tableColumn id="90" xr3:uid="{3051466D-AB63-4BD0-8AAA-6C70CF9522BD}" name="88"/>
+    <tableColumn id="91" xr3:uid="{F4F2ED2A-C496-48F8-90A0-8F986F15675D}" name="89"/>
+    <tableColumn id="92" xr3:uid="{F8660032-8AAC-4DA1-8E05-8F79E31276D3}" name="90"/>
+    <tableColumn id="93" xr3:uid="{B4917520-26A8-49E9-9E6B-78C3BED6D334}" name="91"/>
+    <tableColumn id="94" xr3:uid="{9132FD58-EF71-4142-85E9-60E4F2BEEC27}" name="92"/>
+    <tableColumn id="95" xr3:uid="{A72E9F26-15B0-45B4-817E-77CBF3D1E4F9}" name="93"/>
+    <tableColumn id="96" xr3:uid="{21ED74F6-4878-4EAB-9348-453759A15723}" name="94"/>
+    <tableColumn id="97" xr3:uid="{670D866F-6A00-4201-B1EF-717EE1ECF03D}" name="95"/>
+    <tableColumn id="98" xr3:uid="{085A17A3-1AD5-43FD-83D1-34533CEB7174}" name="96"/>
+    <tableColumn id="99" xr3:uid="{953E8C62-B46F-4264-9FC9-B8D6714E3E74}" name="97"/>
+    <tableColumn id="100" xr3:uid="{301687D3-EBED-45DC-BF54-6AC087FF5DDA}" name="98"/>
+    <tableColumn id="101" xr3:uid="{353845C9-66C6-4097-97AC-FA2B98227ADC}" name="99" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1528,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F770208-25B0-4317-9619-BA4AF8F94FF7}">
   <dimension ref="A1:FI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="DO32" sqref="DO32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BL15" sqref="BL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22027,12 +22608,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:FI41">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>A2 &lt;&gt; A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:FI41">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula xml:space="preserve"> MOD(COLUMN(), 4)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22046,13 +22627,4567 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F69D273-A5BB-401E-BE86-5AF4EA127684}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:DG448"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>254</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>266</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>272</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>276</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>280</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>281</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>282</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>285</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>286</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>287</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>288</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>291</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>293</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>294</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>295</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>296</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>297</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>298</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>299</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>301</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>302</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>303</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>304</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>305</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>306</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>307</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>308</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>309</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>310</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>311</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>337076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>567476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6">
+        <f>230400*G4+G5+337076</f>
+        <v>3101878</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>797876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>1028276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>1258676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>1489076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>1719476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>1949876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>230400</v>
+      </c>
+      <c r="G12">
+        <f>F12</f>
+        <v>230400</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>2180276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>2410676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>2641076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>2871476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>3101876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>3332276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18">
+        <v>337076</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>3562676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>3793076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>19690720</v>
+      </c>
+      <c r="G20">
+        <f>F20-F18</f>
+        <v>19353644</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>4023476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>4253876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>4484276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="L23">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>4714676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>4945076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>5175476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" t="s">
+        <v>315</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>5405876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27">
+        <v>84</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>5636276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>5866676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29">
+        <f>230400*G27+G28+337076</f>
+        <v>19690720</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>6097076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>6327476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>6557876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>6788276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33">
+        <v>29</v>
+      </c>
+      <c r="L33">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>7018676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>7249076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>7479476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="K36">
+        <v>32</v>
+      </c>
+      <c r="L36">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>7709876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37">
+        <v>33</v>
+      </c>
+      <c r="L37">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>7940276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38">
+        <v>34</v>
+      </c>
+      <c r="L38">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>8170676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="K39">
+        <v>35</v>
+      </c>
+      <c r="L39">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>8401076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>36</v>
+      </c>
+      <c r="L40">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>8631476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>8861876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42">
+        <v>38</v>
+      </c>
+      <c r="L42">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>9092276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="K43">
+        <v>39</v>
+      </c>
+      <c r="L43">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>9322676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>39</v>
+      </c>
+      <c r="K44">
+        <v>40</v>
+      </c>
+      <c r="L44">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>9553076</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45">
+        <v>41</v>
+      </c>
+      <c r="L45">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>9783476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="K46">
+        <v>42</v>
+      </c>
+      <c r="L46">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>10013876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>10244276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>44</v>
+      </c>
+      <c r="L48">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>10474676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="K49">
+        <v>45</v>
+      </c>
+      <c r="L49">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>10705076</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="K50">
+        <v>46</v>
+      </c>
+      <c r="L50">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>10935476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>47</v>
+      </c>
+      <c r="L51">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>11165876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>48</v>
+      </c>
+      <c r="L52">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>11396276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="K53">
+        <v>49</v>
+      </c>
+      <c r="L53">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>11626676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>11857076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>51</v>
+      </c>
+      <c r="L55">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>12087476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>51</v>
+      </c>
+      <c r="K56">
+        <v>52</v>
+      </c>
+      <c r="L56">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>12317876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57">
+        <v>53</v>
+      </c>
+      <c r="L57">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>12548276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+      <c r="K58">
+        <v>54</v>
+      </c>
+      <c r="L58">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>12778676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>55</v>
+      </c>
+      <c r="L59">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>13009076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>55</v>
+      </c>
+      <c r="K60">
+        <v>56</v>
+      </c>
+      <c r="L60">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>13239476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="K61">
+        <v>57</v>
+      </c>
+      <c r="L61">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>13469876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62">
+        <v>58</v>
+      </c>
+      <c r="L62">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>13700276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="K63">
+        <v>59</v>
+      </c>
+      <c r="L63">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>13930676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <v>60</v>
+      </c>
+      <c r="L64">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>14161076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="K65">
+        <v>61</v>
+      </c>
+      <c r="L65">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>14391476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+      <c r="K66">
+        <v>62</v>
+      </c>
+      <c r="L66">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>14621876</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A130" si="1">ROW()-2</f>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>13</v>
+      </c>
+      <c r="K67">
+        <v>63</v>
+      </c>
+      <c r="L67">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>14852276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>63</v>
+      </c>
+      <c r="K68">
+        <v>64</v>
+      </c>
+      <c r="L68">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>15082676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>182</v>
+      </c>
+      <c r="K69">
+        <v>65</v>
+      </c>
+      <c r="L69">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>15313076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>169</v>
+      </c>
+      <c r="K70">
+        <v>66</v>
+      </c>
+      <c r="L70">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>15543476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>67</v>
+      </c>
+      <c r="L71">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>15773876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>67</v>
+      </c>
+      <c r="K72">
+        <v>68</v>
+      </c>
+      <c r="L72">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>16004276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="K73">
+        <v>69</v>
+      </c>
+      <c r="L73">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>16234676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K74">
+        <v>70</v>
+      </c>
+      <c r="L74">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>16465076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>71</v>
+      </c>
+      <c r="K75">
+        <v>71</v>
+      </c>
+      <c r="L75">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>16695476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="K76">
+        <v>72</v>
+      </c>
+      <c r="L76">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>16925876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="K77">
+        <v>73</v>
+      </c>
+      <c r="L77">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>17156276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="K78">
+        <v>74</v>
+      </c>
+      <c r="L78">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>17386676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>75</v>
+      </c>
+      <c r="L79">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>17617076</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>75</v>
+      </c>
+      <c r="K80">
+        <v>76</v>
+      </c>
+      <c r="L80">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>17847476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="K81">
+        <v>77</v>
+      </c>
+      <c r="L81">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>18077876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="K82">
+        <v>78</v>
+      </c>
+      <c r="L82">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>18308276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="K83">
+        <v>79</v>
+      </c>
+      <c r="L83">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>18538676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>79</v>
+      </c>
+      <c r="K84">
+        <v>80</v>
+      </c>
+      <c r="L84">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>18769076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="K85">
+        <v>81</v>
+      </c>
+      <c r="L85">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>18999476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K86">
+        <v>82</v>
+      </c>
+      <c r="L86">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>19229876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s">
+        <v>313</v>
+      </c>
+      <c r="K87">
+        <v>83</v>
+      </c>
+      <c r="L87">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>19460276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <v>84</v>
+      </c>
+      <c r="L88">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>19690676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="K89">
+        <v>85</v>
+      </c>
+      <c r="L89">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>19921076</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="K90">
+        <v>86</v>
+      </c>
+      <c r="L90">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>20151476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="K91">
+        <v>87</v>
+      </c>
+      <c r="L91">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>20381876</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>87</v>
+      </c>
+      <c r="K92">
+        <v>88</v>
+      </c>
+      <c r="L92">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>20612276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="K93">
+        <v>89</v>
+      </c>
+      <c r="L93">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>20842676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" t="s">
+        <v>169</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>21073076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <v>91</v>
+      </c>
+      <c r="L95">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>21303476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>91</v>
+      </c>
+      <c r="K96">
+        <v>92</v>
+      </c>
+      <c r="L96">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>21533876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>189</v>
+      </c>
+      <c r="K97">
+        <v>93</v>
+      </c>
+      <c r="L97">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>21764276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98">
+        <v>94</v>
+      </c>
+      <c r="L98">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>21994676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="K99">
+        <v>95</v>
+      </c>
+      <c r="L99">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>22225076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>95</v>
+      </c>
+      <c r="K100">
+        <v>96</v>
+      </c>
+      <c r="L100">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>22455476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>190</v>
+      </c>
+      <c r="K101">
+        <v>97</v>
+      </c>
+      <c r="L101">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>22685876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="K102">
+        <v>98</v>
+      </c>
+      <c r="L102">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>22916276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>99</v>
+      </c>
+      <c r="K103">
+        <v>99</v>
+      </c>
+      <c r="L103">
+        <f>230400*Tabelle4[Spalte1]+ (COLUMN() - COLUMN(Tabelle4[0])) + 337076</f>
+        <v>23146676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f t="shared" ref="A131:A194" si="2">ROW()-2</f>
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>165</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>165</v>
+      </c>
+      <c r="D154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <f t="shared" ref="A195:A258" si="3">ROW()-2</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <f t="shared" ref="A259:A322" si="4">ROW()-2</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <f t="shared" ref="A323:A386" si="5">ROW()-2</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <f t="shared" si="5"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <f t="shared" ref="A387:A448" si="6">ROW()-2</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <f t="shared" si="6"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <f t="shared" si="6"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <f t="shared" si="6"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <f t="shared" si="6"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <f t="shared" si="6"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <f t="shared" si="6"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <f t="shared" si="6"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <f t="shared" si="6"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <f t="shared" si="6"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <f t="shared" si="6"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <f t="shared" si="6"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <f t="shared" si="6"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <f t="shared" si="6"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <f t="shared" si="6"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <f t="shared" si="6"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <f t="shared" si="6"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <f t="shared" si="6"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <f t="shared" si="6"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <f t="shared" si="6"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <f t="shared" si="6"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <f t="shared" si="6"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <f t="shared" si="6"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <f t="shared" si="6"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <f t="shared" si="6"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <f t="shared" si="6"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <f t="shared" si="6"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <f t="shared" si="6"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
